--- a/明日之后共创服数据库/种族.xlsx
+++ b/明日之后共创服数据库/种族.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\明日之后LifeAfter\Lifeafter database\明日之后共创服数据库\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7402C9-5311-4B3B-8E5A-39C7C13D40DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3324" yWindow="852" windowWidth="17172" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,110 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>种族编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复手段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康/理智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100健康值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150理智值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斧头、镐子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更名前为半感染者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用扩散器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得感染生物技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾上腺素、氨基酸营养液、凝固剂、高级抗感染药、绷带、医疗箱、医疗无人机、丘脑稳定剂、拟态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾上腺素、氨基酸营养液、凝固剂、孢子、安定剂、医疗无人机、丘脑稳定剂、拟态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因技能/天赋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +151,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +435,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="88.77734375" customWidth="1"/>
+    <col min="6" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>